--- a/data/trans_dic/P1426-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1426-Dificultad-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.01497559873969983</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.05353907053894735</v>
+        <v>0.05353907053894734</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.02171375299856676</v>
@@ -655,7 +655,7 @@
         <v>0.02230643911962531</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.06283057597766842</v>
+        <v>0.06283057597766843</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.01701896413739815</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.006677722522545327</v>
+        <v>0.005946942805365128</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009729354651447964</v>
+        <v>0.009393254775806593</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03751213823657024</v>
+        <v>0.0364381785902172</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01439259643473356</v>
+        <v>0.01386926853668842</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0146435948552948</v>
+        <v>0.0150900089931579</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04862742871767401</v>
+        <v>0.04897969937768808</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01165980808076945</v>
+        <v>0.01239110640461142</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01397124651996769</v>
+        <v>0.01332138549230418</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04867693061738298</v>
+        <v>0.04838649855407765</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02245721609274202</v>
+        <v>0.02082695003542529</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02366778381753782</v>
+        <v>0.02402488214739108</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07349474183998345</v>
+        <v>0.07529818400828306</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0328478879694285</v>
+        <v>0.03143995100737901</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03184440553259606</v>
+        <v>0.03352017184012972</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.078253762314341</v>
+        <v>0.07944320948480922</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02374984420666887</v>
+        <v>0.02386988582717217</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02564985370383338</v>
+        <v>0.02498088793685298</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07243657648850034</v>
+        <v>0.07218490535923498</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.01903162659618921</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0505528870291356</v>
+        <v>0.05055288702913562</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.01808198222912089</v>
@@ -764,7 +764,7 @@
         <v>0.02556396910320468</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.04710761620723366</v>
+        <v>0.04710761620723367</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.01949822009587113</v>
@@ -773,7 +773,7 @@
         <v>0.02246432178923983</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.0487015719552166</v>
+        <v>0.04870157195521661</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01264713825251876</v>
+        <v>0.01268944053324434</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01155286753562823</v>
+        <v>0.01168710326015268</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03894592045731829</v>
+        <v>0.03917743630316158</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0109927940931312</v>
+        <v>0.01161182397611359</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01691507569460321</v>
+        <v>0.01690951227200197</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0374300026600011</v>
+        <v>0.0383490681071998</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0139316778865015</v>
+        <v>0.01362391870477693</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01672559687971997</v>
+        <v>0.01639108220514721</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04168305568378346</v>
+        <v>0.04161349503495133</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03340710706667727</v>
+        <v>0.03349450894002769</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02969589034298643</v>
+        <v>0.02953023005170142</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06304878954943997</v>
+        <v>0.06619314281104099</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02763571269498831</v>
+        <v>0.02779902238232677</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03736258378449813</v>
+        <v>0.03673179141660867</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05678884329331352</v>
+        <v>0.05810933089364044</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02699127207050394</v>
+        <v>0.02710987827727156</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02951263653400974</v>
+        <v>0.0301023632914799</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05636881336535827</v>
+        <v>0.05730273143977427</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         <v>0.01376577985473855</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.04493899832821733</v>
+        <v>0.04493899832821734</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.009559053431688419</v>
+        <v>0.009423608644527499</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004380645750901754</v>
+        <v>0.004546604591301885</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0362905558535499</v>
+        <v>0.03468060473518017</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.004823494590504871</v>
+        <v>0.004961955796686721</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.008649626403706027</v>
+        <v>0.009795559634594228</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03553500023605007</v>
+        <v>0.03521256176986377</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.009020694211610274</v>
+        <v>0.008626466541912277</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.008826178079809783</v>
+        <v>0.007934308229668124</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03792825469357076</v>
+        <v>0.03800242811389266</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02782617646372304</v>
+        <v>0.02792279868523073</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01724585398823023</v>
+        <v>0.01920552353576718</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05869421568015656</v>
+        <v>0.05740533441361241</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02153661053300907</v>
+        <v>0.02293065010254809</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02963277676374702</v>
+        <v>0.03270435429031852</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05432139277149205</v>
+        <v>0.0550277029372761</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02094865907681948</v>
+        <v>0.0197783407304474</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02147968057153562</v>
+        <v>0.02138069098128122</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0527735665219171</v>
+        <v>0.05325787660987433</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.003955214677147483</v>
+        <v>0.003900284289196763</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.004334038931210227</v>
+        <v>0.004571279780101964</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03056791477235895</v>
+        <v>0.03213804241157126</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01167325181994923</v>
+        <v>0.01258643393922663</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.002128167682438789</v>
+        <v>0.002113463798055052</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02857727408351869</v>
+        <v>0.0289034732623159</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.009920839603123659</v>
+        <v>0.01033977928294698</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.004668694290125229</v>
+        <v>0.004641467573880344</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03238785004842807</v>
+        <v>0.03272260484277172</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02396180101832331</v>
+        <v>0.02404809578989581</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0299723275408183</v>
+        <v>0.03090441030284031</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05194626982094607</v>
+        <v>0.05565229432233472</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04153533074083951</v>
+        <v>0.04445256063383347</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01873236439347675</v>
+        <v>0.02032924442082112</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04945095644669532</v>
+        <v>0.04940480209967466</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02766701960964039</v>
+        <v>0.02943225138230277</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02046963158754201</v>
+        <v>0.02043699652777613</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04743966603842557</v>
+        <v>0.04861244759951398</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01155895649243639</v>
+        <v>0.01145832199933383</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01066575131680117</v>
+        <v>0.01099297894143898</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04106584191854377</v>
+        <v>0.04094938432060487</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01392631986877054</v>
+        <v>0.01430969394768399</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01563886890485564</v>
+        <v>0.01530528631376744</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04127962142902448</v>
+        <v>0.04171390002896355</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01399008021255838</v>
+        <v>0.0139430446277909</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01401918830005849</v>
+        <v>0.01439196675858092</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04309219946391656</v>
+        <v>0.04308014040371241</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02028322587508687</v>
+        <v>0.02046416432044781</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01866616672023537</v>
+        <v>0.01876753384632297</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05319821519629551</v>
+        <v>0.05332596021396546</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0235330268116004</v>
+        <v>0.02386646087437003</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02514187057375796</v>
+        <v>0.02538702172238997</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05197132922847274</v>
+        <v>0.05218473110713216</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02070327449436143</v>
+        <v>0.02054483403984562</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02036516866840344</v>
+        <v>0.02081517524092378</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05134460980160037</v>
+        <v>0.05108861708244</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6971</v>
+        <v>6208</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10975</v>
+        <v>10596</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>18676</v>
+        <v>18142</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>16100</v>
+        <v>15515</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>18445</v>
+        <v>19007</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>30293</v>
+        <v>30513</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>25215</v>
+        <v>26797</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>33357</v>
+        <v>31806</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>54559</v>
+        <v>54233</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23444</v>
+        <v>21742</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>26697</v>
+        <v>27100</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>36591</v>
+        <v>37489</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>36745</v>
+        <v>35170</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>40110</v>
+        <v>42221</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>48749</v>
+        <v>49490</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>51361</v>
+        <v>51621</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>61241</v>
+        <v>59643</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>81190</v>
+        <v>80907</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>12357</v>
+        <v>12399</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10500</v>
+        <v>10622</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>37393</v>
+        <v>37616</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12008</v>
+        <v>12684</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>17025</v>
+        <v>17019</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>41740</v>
+        <v>42765</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>28830</v>
+        <v>28193</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>32035</v>
+        <v>31394</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>86505</v>
+        <v>86360</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>32641</v>
+        <v>32727</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>26988</v>
+        <v>26838</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>60535</v>
+        <v>63554</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>30187</v>
+        <v>30366</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>37605</v>
+        <v>36970</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>63329</v>
+        <v>64801</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>55856</v>
+        <v>56101</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>56526</v>
+        <v>57655</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>116982</v>
+        <v>118920</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8461</v>
+        <v>8341</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3609</v>
+        <v>3745</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>37935</v>
+        <v>36252</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4224</v>
+        <v>4346</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6669</v>
+        <v>7553</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>37205</v>
+        <v>36867</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>15885</v>
+        <v>15190</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14076</v>
+        <v>12654</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>79357</v>
+        <v>79513</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24629</v>
+        <v>24715</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14206</v>
+        <v>15821</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>61354</v>
+        <v>60006</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>18862</v>
+        <v>20083</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22849</v>
+        <v>25217</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>56874</v>
+        <v>57614</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>36889</v>
+        <v>34828</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>34256</v>
+        <v>34098</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>110418</v>
+        <v>111432</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1990</v>
+        <v>1962</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2196</v>
+        <v>2316</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>29832</v>
+        <v>31364</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5285</v>
+        <v>5698</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>25912</v>
+        <v>26208</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9482</v>
+        <v>9882</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4652</v>
+        <v>4625</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>60975</v>
+        <v>61606</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>12053</v>
+        <v>12097</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>15187</v>
+        <v>15659</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>50696</v>
+        <v>54313</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18805</v>
+        <v>20125</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>9173</v>
+        <v>9955</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>44839</v>
+        <v>44797</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>26443</v>
+        <v>28130</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>20396</v>
+        <v>20363</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>89313</v>
+        <v>91521</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>39406</v>
+        <v>39063</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>35915</v>
+        <v>37016</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>142878</v>
+        <v>142473</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>49292</v>
+        <v>50649</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>55155</v>
+        <v>53979</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>152398</v>
+        <v>154001</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>97212</v>
+        <v>96885</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>96649</v>
+        <v>99219</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>309018</v>
+        <v>308932</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>69148</v>
+        <v>69765</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>62854</v>
+        <v>63196</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>185090</v>
+        <v>185534</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>83295</v>
+        <v>84476</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>88670</v>
+        <v>89535</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>191870</v>
+        <v>192658</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>143860</v>
+        <v>142759</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>140399</v>
+        <v>143501</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>368197</v>
+        <v>366361</v>
       </c>
     </row>
     <row r="24">
